--- a/sample_size.xlsx
+++ b/sample_size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sannevanettinger/Documents/Marketing Analytics/ODCM/Project/Presentation week 4 odcm_GR2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurg/TiU/Master/Skills_oDCM/thrift-it-like-macklemore/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6356F371-62BD-2449-9CCB-7F1EF318541E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1EBAF2-C8F7-5A4D-8142-3DD30E1DCBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15500" xr2:uid="{56FDD72A-7A87-DA4D-AFD4-F6B898FD5D64}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Pages to be visited</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Makes N = 5464</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -185,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46251E2C-2E66-2643-8E61-55D2E65D0BAC}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,13 +590,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19">
         <f>B15*B16</f>
@@ -603,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1">
         <f>B19/60/60</f>
@@ -613,7 +616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21">
         <f>B20/24</f>
@@ -623,10 +626,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>700</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +645,23 @@
       <c r="C23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f>F22*F23</f>
+        <v>7000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <f>B20/B23</f>
         <v>20.423888888888889</v>
@@ -645,8 +669,15 @@
       <c r="C26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f>F25/60</f>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>B21/B23</f>
         <v>0.85099537037037043</v>
@@ -654,18 +685,29 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f>F26/60</f>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f>F27/2</f>
+        <v>0.97222222222222221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>17</v>
       </c>
